--- a/NAS-KIPRE Clean.xlsx
+++ b/NAS-KIPRE Clean.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Form responses 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="231">
   <si>
     <t>Timestamp</t>
   </si>
@@ -769,6 +773,18 @@
   <si>
     <t>Staff_of_number</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Data_utilization</t>
+  </si>
 </sst>
 </file>
 
@@ -837,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1025,11 +1041,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1095,6 +1187,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,6 +1254,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Patrick Mwaura" refreshedDate="45943.494775578707" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="26">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="R1:R1048576" sheet="Form responses 1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Data_utilization" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Maybe"/>
+        <s v="Yes"/>
+        <s v="No"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="26">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Data_utilization" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,14 +1648,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="26">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f>7/25</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>1/25</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="28">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <f>17/25</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="28"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="30">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1844,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45931.8916212037</v>
       </c>
@@ -1594,7 +1933,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45932.231256250001</v>
       </c>
@@ -1686,7 +2025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45932.524664247685</v>
       </c>
@@ -1781,7 +2120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45932.548027476849</v>
       </c>
@@ -1873,7 +2212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45932.628935243054</v>
       </c>
@@ -1965,7 +2304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45932.655994988425</v>
       </c>
@@ -2057,7 +2396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45933.389631736107</v>
       </c>
@@ -2152,7 +2491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45933.399519814819</v>
       </c>
@@ -2244,7 +2583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45933.403022708335</v>
       </c>
@@ -2336,7 +2675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45933.503744953705</v>
       </c>
@@ -2428,7 +2767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45933.669528587961</v>
       </c>
@@ -2523,7 +2862,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45934.684953773147</v>
       </c>
@@ -2618,7 +2957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45936.49950795139</v>
       </c>
@@ -2713,7 +3052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45936.507041041667</v>
       </c>
@@ -2808,7 +3147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45936.510300254631</v>
       </c>
@@ -2903,7 +3242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45936.546159016201</v>
       </c>
@@ -2998,7 +3337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45936.549480069443</v>
       </c>
@@ -3090,7 +3429,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45936.655699120369</v>
       </c>
@@ -3185,7 +3524,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45936.672136597219</v>
       </c>
@@ -3277,7 +3616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45936.773026192124</v>
       </c>
@@ -3369,7 +3708,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45937.406810960645</v>
       </c>
@@ -3458,7 +3797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45937.634852870367</v>
       </c>
@@ -3553,7 +3892,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45937.918263541666</v>
       </c>
@@ -3648,7 +3987,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45938.516308981481</v>
       </c>
@@ -3743,7 +4082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45938.845090636576</v>
       </c>
@@ -3843,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16384"/>
   <sheetViews>
